--- a/scripts/ConvertANDTMdes.xlsx
+++ b/scripts/ConvertANDTMdes.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="ConvertTMdes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TMdesConvert" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,15 +374,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>METHOD.CONVERT</t>
+          <t>DESCRIPTION</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>DESCRIPTION</t>
+          <t>Unnamed: 2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>METHOD.1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>METHOD.CONVERT_x</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>DESCRIPTION.1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>METHOD.CONVERT_y</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>_merge</t>
         </is>
@@ -394,16 +414,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>APAM 3.024</t>
+          <t>1-P-QM-WI-9034980</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>APAM_3_024</t>
+          <t>Apparent pH</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>APAM 3.036</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>APAM_3_036</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>viscosity</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -415,22 +451,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>APAM 3.036</t>
+          <t>1-P-QM-WI-9034981</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>APAM_3_036</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>viscosity</t>
-        </is>
-      </c>
+          <t>Appearence</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>SOP QAS-094</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>SOP_QAS_094</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Microbial Environmental Monitoring</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>left_only</t>
         </is>
       </c>
     </row>
@@ -440,16 +488,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>APAM 6.018</t>
+          <t>1-P-QM-WI-9034982</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>APAM_6_018</t>
+          <t>Package Integ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
+        <is>
+          <t>TM-002291</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>TM_002291</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>% Chlorphenesin</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -461,16 +525,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>APAM 9.546</t>
+          <t>1-P-QM-WI-9034983</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>APAM_9_546</t>
+          <t>ET Assay</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
+        <is>
+          <t>TM-002823</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>TM_002823</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>% Propanediol</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -482,16 +562,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Default</t>
+          <t>1-P-QM-WI-9034984</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Default</t>
+          <t>ID of DRM04</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>TM-003448</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>TM_003448</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Korres Milk Proteins</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -503,16 +599,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GC00056</t>
+          <t>AM-1640</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GC00056</t>
+          <t>Pkt Integrity</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>TM-003449</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>TM_003449</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Korres Pomegrenate</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -524,16 +636,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GCWI18</t>
+          <t>AM-1641</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GCWI18</t>
+          <t>Appearence</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
+        <is>
+          <t>TM 201</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>TM201</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>SPG by Hydrometer</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -545,16 +673,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LM 4.1517</t>
+          <t>AM-1642</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LM 4_1517</t>
+          <t>wt loss</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
+        <is>
+          <t>TM 233</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>TM233</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Alt to NPTM 370</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -566,16 +710,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LM 4.2183</t>
+          <t>AM-1645</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LM 4_2183</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
+        <is>
+          <t>TM 3012</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TM3012</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>% Gluconic Acid</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -587,16 +747,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LM 4.7070</t>
+          <t>AM-1651/or AM-1785</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LM 4_7070</t>
+          <t>% ethanol</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
+        <is>
+          <t>TM 377</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TM377</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Residual CIP</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -608,16 +784,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>OR16-MM061</t>
+          <t>AM-1663</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>OR16-MM061</t>
+          <t>Assay</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
+        <is>
+          <t>TM 386</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TM386</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>CHG FT-NIR</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -629,16 +821,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pfizer STM 00001332</t>
+          <t>AM-1664</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PFIZER_STM_00001332</t>
+          <t>DRM04 RS</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
+        <is>
+          <t>TM 387</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TM387</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Residual BZK</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -650,16 +858,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pfizer STM 00001331</t>
+          <t>AM-1666</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PFIZER_STM00001331</t>
+          <t>ET assay</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
+        <is>
+          <t>TM 388</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>TM388</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Residual CHG</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -671,16 +895,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>See Analyte for Method #</t>
+          <t>AM-1666/or AM-1802</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>See Analyte for Method #</t>
+          <t>ET Assay</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
+        <is>
+          <t>TM 389</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>TM389</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Residual PVP</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -692,22 +932,34 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SOP QAS-094</t>
+          <t>AM-1681</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SOP QAS-094</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Microbial Environmental Monitoring</t>
-        </is>
-      </c>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>TM 391</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>TM391</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Bronopol &amp; IPBC in Cetaphil Solution</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>left_only</t>
         </is>
       </c>
     </row>
@@ -717,22 +969,34 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TM-002291</t>
+          <t>AM-1685</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TM-002291</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>% Chlorphenesin</t>
-        </is>
-      </c>
+          <t>Resi sol by GC</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>TM 392</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>TM392</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>% Phenoxyethanol and Benzoic Acid by HPLC</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>left_only</t>
         </is>
       </c>
     </row>
@@ -742,22 +1006,34 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TM-002823</t>
+          <t>AM-1686</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TM-002823</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>% Propanediol</t>
-        </is>
-      </c>
+          <t>Methyl Tosylate HPLC</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>TM 394</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>TM394</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>% Dehydroacetic, benzoic, phenoxy ethanol</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>left_only</t>
         </is>
       </c>
     </row>
@@ -767,22 +1043,34 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TM-003448</t>
+          <t>AM-1687</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TM-003448</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Korres Milk Proteins</t>
-        </is>
-      </c>
+          <t>Resi on Igni</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>TM 395</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>TM395</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>% Phenoxyethanol, sodium benzoate and Benzoic Acid by HPLC</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>left_only</t>
         </is>
       </c>
     </row>
@@ -792,22 +1080,34 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TM-003449</t>
+          <t>AM-1688</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TM-003449</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Korres Pomegrenate</t>
-        </is>
-      </c>
+          <t>Chiral HPLC</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>TM 397</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>TM397</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>% of Phenoxyethanol &amp; IPBC</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>left_only</t>
         </is>
       </c>
     </row>
@@ -817,16 +1117,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TM 000469</t>
+          <t>AM-1689</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TM000469</t>
+          <t>ID by HPLC</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
+        <is>
+          <t>TM 399</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>TM399</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>% of Phenoxyethanol, IPBC &amp; Salycilic acid</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -838,16 +1154,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TM 000504</t>
+          <t>AM-1690</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TM000504</t>
+          <t>Organic Impu. RC</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
+        <is>
+          <t>TM400/408b/421/422/USP</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>TM400_TM408b_TM421_TM422</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Chemical Identification Methods</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -859,16 +1191,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TM002349</t>
+          <t>AM-1801</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TM002349</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
+        <is>
+          <t>TM430 / TM409</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>TM430_TM409</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Iodine Assay and ID executed simultaneously</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -880,16 +1228,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TM 101</t>
+          <t>AM-1802</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TM101</t>
+          <t>E tosy assay</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
+        <is>
+          <t>TM 601</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>TM601</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -901,16 +1265,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TM 102</t>
+          <t>AOCS Cd 8-53</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TM102</t>
+          <t>Peroxide value</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
+        <is>
+          <t>TM 603</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>TM603</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Celsius</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -922,16 +1302,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TM 103</t>
+          <t>AOCS Td 1a-64)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TM103</t>
+          <t>Color Gardner</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
+        <is>
+          <t>TM 604</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>TM604</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>CHG</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -943,16 +1339,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TM 104</t>
+          <t>APAM 12.903-2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>TM104</t>
+          <t>PHENOXY Et/BA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
+        <is>
+          <t>TM 605</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>TM605</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Growth Promotion</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -964,16 +1376,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TM 107</t>
+          <t>APAM 3.002</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TM107</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
+        <is>
+          <t>TM 610</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>TM610</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Bioburden Testing</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -985,16 +1413,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TM 112</t>
+          <t>APAM 3.014/3.018</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TM112</t>
+          <t>Spg</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
+        <is>
+          <t>TM 613</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>TM613</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Gram Stain</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1006,16 +1450,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TM 132</t>
+          <t>APAM 3.030-3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TM132</t>
+          <t>Viscosity</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
+        <is>
+          <t>TM 869</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>TM869</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Raw Materials J&amp;J</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1027,18 +1487,38 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TM 132/143</t>
+          <t>APAM 3.036</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TM132_TM143</t>
+          <t>viscosity</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>left_only</t>
+          <t>TM 891</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>TM891</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Neutrogena Salicylic Acid</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>APAM_3_036</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -1048,16 +1528,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TM 143</t>
+          <t>APAM 3.036-3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TM143</t>
+          <t>viscosity</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
+        <is>
+          <t>USP &lt;197F&gt;</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>USP_197F</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>IR Method</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1069,16 +1565,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TM 148</t>
+          <t>APAM 3.100</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>TM148</t>
+          <t>color</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
+        <is>
+          <t>USP &lt;197M&gt;</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>USP_197M</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>IR Method</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1090,16 +1602,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TM 200</t>
+          <t>APAM 3.100-2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>TM200</t>
+          <t>color</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
+        <is>
+          <t>USP/NF &lt;197U&gt;</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>USP_TMNF_197U</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>UV/VIS</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1111,22 +1639,34 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TM 201</t>
+          <t>APAM 3.1003</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TM201</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>SPG by Hydrometer</t>
-        </is>
-      </c>
+          <t>color</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>WI QAS 026</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>WI_QAS_026</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Identification</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>left_only</t>
         </is>
       </c>
     </row>
@@ -1136,16 +1676,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TM 202</t>
+          <t>APAM 3.130-1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TM202</t>
+          <t>Defoaming test</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
+        <is>
+          <t>WI QAS 076</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>WI_QAS_076</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Gram Stain</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1157,16 +1713,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TM 203</t>
+          <t>APAM 5.000-1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TM203</t>
+          <t>Free acidity</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
+        <is>
+          <t>WI QAS 080</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>WI_QAS_080</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Oxidase</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1178,16 +1750,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TM 204</t>
+          <t>APAM 6.004-1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TM204</t>
+          <t>% of NaOH, Na2CO3</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
+        <is>
+          <t>WI QAS 089</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>WI_QAS_089</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Machine Swabbing</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1199,16 +1787,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TM 225</t>
+          <t>APAM 6.180</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TM225</t>
+          <t>heavy metals</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
+        <is>
+          <t>WI QAS 090</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>WI_QAS_090</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Coagulase</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1220,16 +1824,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TM 228</t>
+          <t>APAM 9.062</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TM228</t>
+          <t>Assay</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1241,16 +1849,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TM 229</t>
+          <t>APAM 9.434-2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TM229</t>
+          <t>Sorbic Acid (Qual)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1262,22 +1874,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TM 233</t>
+          <t>ASTM D 646</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TM233</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Alt to NPTM 370</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>both</t>
+          <t>Basis wt</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>left_only</t>
         </is>
       </c>
     </row>
@@ -1287,16 +1899,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TM 234/TM 323</t>
+          <t>IUPAC 2.201(M)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TM234_TM323</t>
+          <t>Acid Value</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1308,16 +1924,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TM 234/TM 434</t>
+          <t>IUPAC 2.202</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TM234_TM434</t>
+          <t>Saponification</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1329,16 +1949,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TM 301/434</t>
+          <t>NF</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TM301_TM434</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1350,22 +1974,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TM 3012</t>
+          <t>NPTM 3004</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TM3012</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>% Gluconic Acid</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>both</t>
+          <t>H2O2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>left_only</t>
         </is>
       </c>
     </row>
@@ -1375,16 +1999,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TM 302</t>
+          <t>NPTM 411</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>TM302</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1396,16 +2024,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TM 314</t>
+          <t>NPTM3000/NPTM314</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>TM314</t>
+          <t>Witch Hazel</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1417,16 +2049,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TM 319</t>
+          <t>RDTMW140</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TM319</t>
+          <t>Medi wipe</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1438,16 +2074,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TM 321</t>
+          <t>RDTMW141</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>TM321</t>
+          <t>Medi wipe</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1459,18 +2099,26 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TM 321C</t>
+          <t>SOP QAS-094</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>TM321C</t>
+          <t>Microbial Environmental Monitoring</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>left_only</t>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>SOP QAS-094</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -1480,16 +2128,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TM 322</t>
+          <t>TC276/WG2N30 930809C</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>TM322</t>
+          <t>Cloudpoint</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1501,16 +2153,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TM 323</t>
+          <t>TM 1000-APP</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>TM323</t>
+          <t>Percent Opacity</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1522,16 +2178,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TM 323/1002</t>
+          <t>TM 1001/314</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>TM323_TM1002</t>
+          <t>FTNIR</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1543,16 +2203,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TM 327</t>
+          <t>TM 1001/434</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>TM327</t>
+          <t>FTNIR</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1564,16 +2228,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TM 341</t>
+          <t>TM 165</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>TM341</t>
+          <t>Dispesible</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1585,18 +2253,26 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TM 344</t>
+          <t>TM 201</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>TM344</t>
+          <t>SPG by Hydrometer</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>left_only</t>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>TM201</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -1606,16 +2282,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TM 348</t>
+          <t>TM 207</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>TM348</t>
+          <t>Melting range</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1627,16 +2307,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TM 352</t>
+          <t>TM 222</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>TM352</t>
+          <t>Solubility</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1648,16 +2332,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TM 357</t>
+          <t>TM 230</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>TM357</t>
+          <t>Gardner Color</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1669,18 +2357,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TM 370</t>
+          <t>TM 233</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>TM370</t>
+          <t>Alt to NPTM 370</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>left_only</t>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>TM233</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -1690,16 +2386,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TM 371</t>
+          <t>TM 237</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>TM371</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1711,16 +2411,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TM 373</t>
+          <t>TM 238</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>TM373</t>
+          <t>Appearence</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1732,16 +2436,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TM 376</t>
+          <t>TM 3000 or TM 393</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>TM376</t>
+          <t>Witch hazel %</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1753,22 +2461,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TM 377</t>
+          <t>TM 3006</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>TM377</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Residual CIP</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>both</t>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>left_only</t>
         </is>
       </c>
     </row>
@@ -1778,16 +2486,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TM 383</t>
+          <t>TM 3008</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>TM383</t>
+          <t>HPLC</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -1799,18 +2511,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TM 384</t>
+          <t>TM 3012</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>TM384</t>
+          <t>% Gluconic Acid</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>left_only</t>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>TM3012</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -1820,22 +2540,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TM 386</t>
+          <t>TM 367</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>TM386</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>CHG FT-NIR</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>both</t>
+          <t>Residual Bronopol &amp; Salicylic Acid</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>left_only</t>
         </is>
       </c>
     </row>
@@ -1845,20 +2565,24 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TM 387</t>
+          <t>TM 377</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>TM387</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Residual BZK</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
+          <t>Residual CIP</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>TM377</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -1870,22 +2594,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TM 388</t>
+          <t>TM 381</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>TM388</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Residual CHG</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>both</t>
+          <t>Residual Propyl Paraben</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>left_only</t>
         </is>
       </c>
     </row>
@@ -1895,22 +2619,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TM 389</t>
+          <t>TM 382</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>TM389</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Residual PVP</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>both</t>
+          <t>Residual IPBC</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>left_only</t>
         </is>
       </c>
     </row>
@@ -1920,20 +2644,24 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TM 391</t>
+          <t>TM 386</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>TM391</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Bronopol &amp; IPBC in Cetaphil Solution</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
+          <t>CHG FT-NIR</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>TM386</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -1945,20 +2673,24 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TM 392</t>
+          <t>TM 387</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>TM392</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>% Phenoxyethanol and Benzoic Acid by HPLC</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
+          <t>Residual BZK</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>TM387</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -1970,20 +2702,24 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TM 394</t>
+          <t>TM 388</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>TM394</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>% Dehydroacetic, benzoic, phenoxy ethanol</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
+          <t>Residual CHG</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>TM388</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -1995,20 +2731,24 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TM 395</t>
+          <t>TM 389</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>TM395</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>% Phenoxyethanol, sodium benzoate and Benzoic Acid by HPLC</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
+          <t>Residual PVP</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>TM389</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -2020,20 +2760,24 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TM 397</t>
+          <t>TM 391</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>TM397</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>% of Phenoxyethanol &amp; IPBC</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
+          <t>Bronopol &amp; IPBC in Cetaphil Solution</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>TM391</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -2045,20 +2789,24 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TM 399</t>
+          <t>TM 392</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>TM399</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>% of Phenoxyethanol, IPBC &amp; Salycilic acid</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
+          <t>% Phenoxyethanol and Benzoic Acid by HPLC</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>TM392</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -2070,22 +2818,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TM400/408b/421/422/USP</t>
+          <t>TM 393</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>TM400_TM408b_TM421_TM422</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Chemical Identification Methods</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>both</t>
+          <t>% of Witch Hazel (composite BME)</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>left_only</t>
         </is>
       </c>
     </row>
@@ -2095,18 +2843,26 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TM 409</t>
+          <t>TM 394</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>TM409</t>
+          <t>% Dehydroacetic, benzoic, phenoxy ethanol</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>left_only</t>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>TM394</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -2116,18 +2872,26 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TM 411</t>
+          <t>TM 395</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>TM411</t>
+          <t>% Phenoxyethanol, sodium benzoate and Benzoic Acid by HPLC</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>left_only</t>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>TM395</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -2137,16 +2901,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TM 419</t>
+          <t>TM 396</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>TM419</t>
+          <t>% of Phenoxyethanol,Methyl &amp; propyl paraben</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -2158,18 +2926,26 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TM 430</t>
+          <t>TM 397</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>TM430</t>
+          <t>% of Phenoxyethanol &amp; IPBC</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>left_only</t>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>TM397</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -2179,20 +2955,24 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TM430 / TM409</t>
+          <t>TM 399</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>TM430_TM409</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Iodine Assay and ID executed simultaneously</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
+          <t>% of Phenoxyethanol, IPBC &amp; Salycilic acid</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>TM399</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -2204,18 +2984,26 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TM 434</t>
+          <t>TM 601</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>TM434</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>left_only</t>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>TM601</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -2225,18 +3013,26 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TM 469</t>
+          <t>TM 603</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>TM469</t>
+          <t>Celsius</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>left_only</t>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>TM603</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -2246,20 +3042,24 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TM 601</t>
+          <t>TM 604</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>TM601</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
+          <t>CHG</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>TM604</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -2271,18 +3071,26 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TM 602</t>
+          <t>TM 605</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>TM602</t>
+          <t>Growth Promotion</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>left_only</t>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>TM605</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -2292,20 +3100,24 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TM 603</t>
+          <t>TM 610</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>TM603</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Celsius</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
+          <t>Bioburden Testing</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>TM610</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -2317,22 +3129,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TM 604</t>
+          <t>TM 611</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>TM604</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>CHG</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>both</t>
+          <t>Sterility Testing</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>left_only</t>
         </is>
       </c>
     </row>
@@ -2342,20 +3154,24 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TM 605</t>
+          <t>TM 613</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>TM605</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Growth Promotion</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
+          <t>Gram Stain</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>TM613</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -2367,18 +3183,26 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TM 606</t>
+          <t>TM 869</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>TM606</t>
+          <t>Raw Materials J&amp;J</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>left_only</t>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>TM869</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -2388,20 +3212,24 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TM 610</t>
+          <t>TM 891</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>TM610</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Bioburden Testing</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
+          <t>Neutrogena Salicylic Acid</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>TM891</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -2413,20 +3241,24 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TM 613</t>
+          <t>TM-002291</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>TM613</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Gram Stain</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
+          <t>% Chlorphenesin</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>TM-002291</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -2438,22 +3270,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TM 869</t>
+          <t>TM-002568</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>TM869</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Raw Materials J&amp;J</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>both</t>
+          <t>Total Sugars</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>left_only</t>
         </is>
       </c>
     </row>
@@ -2463,16 +3295,20 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TM 882</t>
+          <t>TM-002569</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>TM882</t>
+          <t>Reducing  Sugars</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -2484,20 +3320,24 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TM 891</t>
+          <t>TM-002823</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>TM891</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Neutrogena Salicylic Acid</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
+          <t>% Propanediol</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>TM-002823</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -2509,18 +3349,26 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TM WW78014</t>
+          <t>TM-003448</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>TMWW78014</t>
+          <t>Korres Milk Proteins</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>left_only</t>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>TM-003448</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -2530,18 +3378,26 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>USP</t>
+          <t>TM-003449</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>USP</t>
+          <t>Korres Pomegrenate</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>left_only</t>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>TM-003449</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -2551,22 +3407,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>USP &lt;197F&gt;</t>
+          <t>TM101/TM107/TM132/Measure</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>USP &lt;197F&gt;</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>IR Method</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>both</t>
+          <t>Web Inspection</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>left_only</t>
         </is>
       </c>
     </row>
@@ -2576,22 +3432,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>USP &lt;197M&gt;</t>
+          <t>TM208/220/230/USP/Kao LM</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>USP &lt;197M&gt;</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>IR Method</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>both</t>
+          <t>Chemical Inspection Methods</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>left_only</t>
         </is>
       </c>
     </row>
@@ -2601,16 +3457,20 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>USP &lt;621&gt;</t>
+          <t>TM370/TM233 (Alternate)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>USP &lt;621&gt;</t>
+          <t>PCA and related sub</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -2622,16 +3482,20 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>USP &lt;791&gt;</t>
+          <t>TM370/TM371/TM386</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>USP &lt;791&gt;</t>
+          <t>CHG/IPA</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -2643,16 +3507,20 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>USP &lt;841&gt;</t>
+          <t>TM370/TM371/TM386/TM3002</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>USP &lt;841&gt;</t>
+          <t>CHG/IPA</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -2664,16 +3532,20 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>USP/NF for Dexpanthenol</t>
+          <t>TM370/TM386/TM233</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>USP_NF for Dexpanthenol</t>
+          <t>CHG</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -2685,22 +3557,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>USP/NF &lt;197U&gt;</t>
+          <t>TM371/TM3002</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>USP_TMNF &lt;197U&gt;</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>UV/VIS</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>both</t>
+          <t>CHG/IPA</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>left_only</t>
         </is>
       </c>
     </row>
@@ -2710,18 +3582,26 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>USP/NF &lt;791&gt;</t>
+          <t>TM400/408b/421/422/USP</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>USP_TMNF &lt;791&gt;</t>
+          <t>Chemical Identification Methods</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>left_only</t>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>TM400_TM408b_TM421_TM422</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -2731,18 +3611,26 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>USP-HPLC</t>
+          <t>TM430 / TM409</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>USP-HPLC</t>
+          <t>Iodine Assay and ID executed simultaneously</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>left_only</t>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>TM430_TM409</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -2752,16 +3640,20 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>USP/NF &lt;841&gt;</t>
+          <t>Ultraseal TM 102</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>USP/NF &lt;841&gt;</t>
+          <t>Lube jelly</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -2773,22 +3665,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>WI QAS 026</t>
+          <t>UMA-6371 or TM 2004</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>WI QAS 026</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Identification</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>both</t>
+          <t>salicylic acid</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>left_only</t>
         </is>
       </c>
     </row>
@@ -2798,20 +3690,24 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>WI QAS 076</t>
+          <t>USP &lt;197F&gt;</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>WI QAS 076</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Gram Stain</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
+          <t>IR Method</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>USP &lt;197F&gt;</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -2823,20 +3719,24 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>WI QAS 080</t>
+          <t>USP &lt;197M&gt;</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>WI QAS 080</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Oxidase</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
+          <t>IR Method</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>USP &lt;197M&gt;</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
         <is>
           <t>both</t>
         </is>
@@ -2848,22 +3748,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>WI QAS 089</t>
+          <t>USP &lt;541&gt;</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>WI QAS 089</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Machine Swabbing</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>both</t>
+          <t>Assay, dried basis</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>left_only</t>
         </is>
       </c>
     </row>
@@ -2873,22 +3773,396 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
+          <t>USP/NF &lt;197U&gt;</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>UV/VIS</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>USP_TMNF &lt;197U&gt;</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>USP/NF &lt;211&gt; Method I</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Arsenic</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>USP/NF &lt;231&gt; Method II</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Heavy Metals</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Vatten LB</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Water Content</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>WI QAS 025</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>DQA</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>WI QAS 026</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Identification</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>WI QAS 026</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>WI QAS 076</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Gram Stain</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>WI QAS 076</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>WI QAS 080</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Oxidase</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>WI QAS 080</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>WI QAS 088</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Personnel Monitoring</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>WI QAS 089</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Machine Swabbing</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>WI QAS 089</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
           <t>WI QAS 090</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Coagulase</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
         <is>
           <t>WI QAS 090</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Coagulase</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>both</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>WI QAS-019</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Inoculum Preparation of no more than 100 cfu/ml Suspension</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>WI QAS-053</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Contamination prevantion lab</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>WI QAS-055</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Doc Review</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>WI-QAS-029</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Maintenance of Water Bath</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>left_only</t>
         </is>
       </c>
     </row>
